--- a/database/industries/polymer/jam/income/quarterly/rial.xlsx
+++ b/database/industries/polymer/jam/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\jam\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\polymer\jam\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F87F64-8B9D-48F1-BFDC-F4EA5305428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B59C53A-50D7-47DE-A680-C1ACAE75F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-04-04 (10)</t>
+  </si>
+  <si>
+    <t>1399-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-14 (6)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-09 (9)</t>
+  </si>
+  <si>
+    <t>1400-05-06 (3)</t>
+  </si>
+  <si>
     <t>1400-09-15 (5)</t>
   </si>
   <si>
@@ -88,18 +139,27 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
-  </si>
-  <si>
-    <t>1401-04-29</t>
-  </si>
-  <si>
-    <t>1401-09-15 (2)</t>
+    <t>1402-04-12 (9)</t>
+  </si>
+  <si>
+    <t>1402-04-28 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
   </si>
   <si>
     <t>1401-10-28</t>
   </si>
   <si>
+    <t>1402-07-30 (4)</t>
+  </si>
+  <si>
+    <t>1402-04-28</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -127,7 +187,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,22 +675,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -643,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -689,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -771,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -821,154 +1017,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>21389346</v>
+      </c>
+      <c r="E11" s="13">
+        <v>27075054</v>
+      </c>
+      <c r="F11" s="13">
+        <v>32701049</v>
+      </c>
+      <c r="G11" s="13">
+        <v>36575664</v>
+      </c>
+      <c r="H11" s="13">
+        <v>32265643</v>
+      </c>
+      <c r="I11" s="13">
+        <v>33794667</v>
+      </c>
+      <c r="J11" s="13">
+        <v>32378458</v>
+      </c>
+      <c r="K11" s="13">
         <v>53882598</v>
       </c>
-      <c r="E11" s="13">
+      <c r="L11" s="13">
         <v>76463849</v>
       </c>
-      <c r="F11" s="13">
+      <c r="M11" s="13">
         <v>111593384</v>
       </c>
-      <c r="G11" s="13">
+      <c r="N11" s="13">
         <v>89600576</v>
       </c>
-      <c r="H11" s="13">
+      <c r="O11" s="13">
         <v>81890364</v>
       </c>
-      <c r="I11" s="13">
+      <c r="P11" s="13">
         <v>85184966</v>
       </c>
-      <c r="J11" s="13">
+      <c r="Q11" s="13">
         <v>102640370</v>
       </c>
-      <c r="K11" s="13">
+      <c r="R11" s="13">
         <v>103734776</v>
       </c>
-      <c r="L11" s="13">
+      <c r="S11" s="13">
         <v>91320392</v>
       </c>
-      <c r="M11" s="13">
+      <c r="T11" s="13">
         <v>91368489</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U11" s="13">
+        <v>114503675</v>
+      </c>
+      <c r="V11" s="13">
+        <v>114184221</v>
+      </c>
+      <c r="W11" s="13">
+        <v>106664157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-15097849</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-20635173</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-22865354</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-26345331</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-26684041</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-25786624</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-23470834</v>
+      </c>
+      <c r="K12" s="11">
         <v>-38785371</v>
       </c>
-      <c r="E12" s="11">
+      <c r="L12" s="11">
         <v>-49000565</v>
       </c>
-      <c r="F12" s="11">
+      <c r="M12" s="11">
         <v>-64153281</v>
       </c>
-      <c r="G12" s="11">
+      <c r="N12" s="11">
         <v>-61741039</v>
       </c>
-      <c r="H12" s="11">
+      <c r="O12" s="11">
         <v>-57212601</v>
       </c>
-      <c r="I12" s="11">
+      <c r="P12" s="11">
         <v>-66924728</v>
       </c>
-      <c r="J12" s="11">
+      <c r="Q12" s="11">
         <v>-93041788</v>
       </c>
-      <c r="K12" s="11">
+      <c r="R12" s="11">
         <v>-78573035</v>
       </c>
-      <c r="L12" s="11">
+      <c r="S12" s="11">
         <v>-76330686</v>
       </c>
-      <c r="M12" s="11">
+      <c r="T12" s="11">
         <v>-75643155</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-89525778</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-85091095</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-85882175</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>6291497</v>
+      </c>
+      <c r="E13" s="15">
+        <v>6439881</v>
+      </c>
+      <c r="F13" s="15">
+        <v>9835695</v>
+      </c>
+      <c r="G13" s="15">
+        <v>10230333</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5581602</v>
+      </c>
+      <c r="I13" s="15">
+        <v>8008043</v>
+      </c>
+      <c r="J13" s="15">
+        <v>8907624</v>
+      </c>
+      <c r="K13" s="15">
         <v>15097227</v>
       </c>
-      <c r="E13" s="15">
+      <c r="L13" s="15">
         <v>27463284</v>
       </c>
-      <c r="F13" s="15">
+      <c r="M13" s="15">
         <v>47440103</v>
       </c>
-      <c r="G13" s="15">
+      <c r="N13" s="15">
         <v>27859537</v>
       </c>
-      <c r="H13" s="15">
+      <c r="O13" s="15">
         <v>24677763</v>
       </c>
-      <c r="I13" s="15">
+      <c r="P13" s="15">
         <v>18260238</v>
       </c>
-      <c r="J13" s="15">
+      <c r="Q13" s="15">
         <v>9598582</v>
       </c>
-      <c r="K13" s="15">
+      <c r="R13" s="15">
         <v>25161741</v>
       </c>
-      <c r="L13" s="15">
+      <c r="S13" s="15">
         <v>14989706</v>
       </c>
-      <c r="M13" s="15">
+      <c r="T13" s="15">
         <v>15725334</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>24977897</v>
+      </c>
+      <c r="V13" s="15">
+        <v>29093126</v>
+      </c>
+      <c r="W13" s="15">
+        <v>20781982</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-1021196</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-1488117</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-1551364</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-2126438</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-2016690</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1594948</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-2156077</v>
+      </c>
+      <c r="K14" s="11">
         <v>-2896145</v>
       </c>
-      <c r="E14" s="11">
+      <c r="L14" s="11">
         <v>-5756998</v>
       </c>
-      <c r="F14" s="11">
+      <c r="M14" s="11">
         <v>-7936216</v>
       </c>
-      <c r="G14" s="11">
+      <c r="N14" s="11">
         <v>-4168409</v>
       </c>
-      <c r="H14" s="11">
+      <c r="O14" s="11">
         <v>-4913827</v>
       </c>
-      <c r="I14" s="11">
+      <c r="P14" s="11">
         <v>-3356051</v>
       </c>
-      <c r="J14" s="11">
+      <c r="Q14" s="11">
         <v>-6476963</v>
       </c>
-      <c r="K14" s="11">
+      <c r="R14" s="11">
         <v>-4021914</v>
       </c>
-      <c r="L14" s="11">
+      <c r="S14" s="11">
         <v>-5555007</v>
       </c>
-      <c r="M14" s="11">
+      <c r="T14" s="11">
         <v>-2866389</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-6104868</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-5076610</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-9491770</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1001,190 +1327,370 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>582969</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-830753</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1612482</v>
+      </c>
+      <c r="G16" s="11">
+        <v>861627</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-422473</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2117726</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1007272</v>
+      </c>
+      <c r="K16" s="11">
         <v>1825607</v>
       </c>
-      <c r="E16" s="11">
+      <c r="L16" s="11">
         <v>2206181</v>
       </c>
-      <c r="F16" s="11">
+      <c r="M16" s="11">
         <v>14404594</v>
       </c>
-      <c r="G16" s="11">
+      <c r="N16" s="11">
         <v>-1674293</v>
       </c>
-      <c r="H16" s="11">
+      <c r="O16" s="11">
         <v>1128150</v>
       </c>
-      <c r="I16" s="11">
+      <c r="P16" s="11">
         <v>249876</v>
       </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
         <v>29228932</v>
       </c>
-      <c r="K16" s="11">
+      <c r="R16" s="11">
         <v>306260</v>
       </c>
-      <c r="L16" s="11">
+      <c r="S16" s="11">
         <v>-910946</v>
       </c>
-      <c r="M16" s="11">
+      <c r="T16" s="11">
         <v>-710325</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="11">
+        <v>36332769</v>
+      </c>
+      <c r="V16" s="11">
+        <v>54093</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-362247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>5853270</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4121011</v>
+      </c>
+      <c r="F17" s="15">
+        <v>6671849</v>
+      </c>
+      <c r="G17" s="15">
+        <v>8965522</v>
+      </c>
+      <c r="H17" s="15">
+        <v>3142439</v>
+      </c>
+      <c r="I17" s="15">
+        <v>8530821</v>
+      </c>
+      <c r="J17" s="15">
+        <v>7758819</v>
+      </c>
+      <c r="K17" s="15">
         <v>14026689</v>
       </c>
-      <c r="E17" s="15">
+      <c r="L17" s="15">
         <v>23912467</v>
       </c>
-      <c r="F17" s="15">
+      <c r="M17" s="15">
         <v>53908481</v>
       </c>
-      <c r="G17" s="15">
+      <c r="N17" s="15">
         <v>22016835</v>
       </c>
-      <c r="H17" s="15">
+      <c r="O17" s="15">
         <v>20892086</v>
       </c>
-      <c r="I17" s="15">
+      <c r="P17" s="15">
         <v>15154063</v>
       </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
         <v>32350551</v>
       </c>
-      <c r="K17" s="15">
+      <c r="R17" s="15">
         <v>21446087</v>
       </c>
-      <c r="L17" s="15">
+      <c r="S17" s="15">
         <v>8523753</v>
       </c>
-      <c r="M17" s="15">
+      <c r="T17" s="15">
         <v>12148620</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>55205798</v>
+      </c>
+      <c r="V17" s="15">
+        <v>24070609</v>
+      </c>
+      <c r="W17" s="15">
+        <v>10927965</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-52321</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-85790</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-118560</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-82545</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-14960</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-125137</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-229997</v>
+      </c>
+      <c r="K18" s="11">
         <v>-153154</v>
       </c>
-      <c r="E18" s="11">
+      <c r="L18" s="11">
         <v>-171611</v>
       </c>
-      <c r="F18" s="11">
+      <c r="M18" s="11">
         <v>-483733</v>
       </c>
-      <c r="G18" s="11">
+      <c r="N18" s="11">
         <v>-371757</v>
       </c>
-      <c r="H18" s="11">
+      <c r="O18" s="11">
         <v>-87498</v>
       </c>
-      <c r="I18" s="11">
+      <c r="P18" s="11">
         <v>-137532</v>
       </c>
-      <c r="J18" s="11">
+      <c r="Q18" s="11">
         <v>-311024</v>
       </c>
-      <c r="K18" s="11">
+      <c r="R18" s="11">
         <v>-258780</v>
       </c>
-      <c r="L18" s="11">
+      <c r="S18" s="11">
         <v>-201380</v>
       </c>
-      <c r="M18" s="11">
+      <c r="T18" s="11">
         <v>19856</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="11">
+        <v>-2216</v>
+      </c>
+      <c r="V18" s="11">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>108641</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3423169</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2125264</v>
+      </c>
+      <c r="G19" s="13">
+        <v>244104</v>
+      </c>
+      <c r="H19" s="13">
+        <v>290723</v>
+      </c>
+      <c r="I19" s="13">
+        <v>8257193</v>
+      </c>
+      <c r="J19" s="13">
+        <v>808443</v>
+      </c>
+      <c r="K19" s="13">
         <v>1857002</v>
       </c>
-      <c r="E19" s="13">
+      <c r="L19" s="13">
         <v>148822</v>
       </c>
-      <c r="F19" s="13">
+      <c r="M19" s="13">
         <v>-969880</v>
       </c>
-      <c r="G19" s="13">
+      <c r="N19" s="13">
         <v>-444753</v>
       </c>
-      <c r="H19" s="13">
+      <c r="O19" s="13">
         <v>2880988</v>
       </c>
-      <c r="I19" s="13">
+      <c r="P19" s="13">
         <v>2027710</v>
       </c>
-      <c r="J19" s="13">
+      <c r="Q19" s="13">
         <v>2337420</v>
       </c>
-      <c r="K19" s="13">
+      <c r="R19" s="13">
         <v>2947199</v>
       </c>
-      <c r="L19" s="13">
+      <c r="S19" s="13">
         <v>2676797</v>
       </c>
-      <c r="M19" s="13">
+      <c r="T19" s="13">
         <v>5108691</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="13">
+        <v>-2207235</v>
+      </c>
+      <c r="V19" s="13">
+        <v>1154643</v>
+      </c>
+      <c r="W19" s="13">
+        <v>2417613</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>5909590</v>
+      </c>
+      <c r="E20" s="17">
+        <v>7458390</v>
+      </c>
+      <c r="F20" s="17">
+        <v>8678553</v>
+      </c>
+      <c r="G20" s="17">
+        <v>9127081</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3418202</v>
+      </c>
+      <c r="I20" s="17">
+        <v>16662877</v>
+      </c>
+      <c r="J20" s="17">
+        <v>8337265</v>
+      </c>
+      <c r="K20" s="17">
         <v>15730537</v>
       </c>
-      <c r="E20" s="17">
+      <c r="L20" s="17">
         <v>23889678</v>
       </c>
-      <c r="F20" s="17">
+      <c r="M20" s="17">
         <v>52454868</v>
       </c>
-      <c r="G20" s="17">
+      <c r="N20" s="17">
         <v>21200325</v>
       </c>
-      <c r="H20" s="17">
+      <c r="O20" s="17">
         <v>23685576</v>
       </c>
-      <c r="I20" s="17">
+      <c r="P20" s="17">
         <v>17044241</v>
       </c>
-      <c r="J20" s="17">
+      <c r="Q20" s="17">
         <v>34376947</v>
       </c>
-      <c r="K20" s="17">
+      <c r="R20" s="17">
         <v>24134506</v>
       </c>
-      <c r="L20" s="17">
+      <c r="S20" s="17">
         <v>10999170</v>
       </c>
-      <c r="M20" s="17">
+      <c r="T20" s="17">
         <v>17277167</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>52996347</v>
+      </c>
+      <c r="V20" s="17">
+        <v>25225252</v>
+      </c>
+      <c r="W20" s="17">
+        <v>13345578</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
@@ -1217,46 +1723,106 @@
       <c r="M21" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <v>-4670488</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-1479850</v>
+      </c>
+      <c r="W21" s="13">
+        <v>1479850</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>5909590</v>
+      </c>
+      <c r="E22" s="17">
+        <v>7458390</v>
+      </c>
+      <c r="F22" s="17">
+        <v>8678553</v>
+      </c>
+      <c r="G22" s="17">
+        <v>9127081</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3418202</v>
+      </c>
+      <c r="I22" s="17">
+        <v>16662877</v>
+      </c>
+      <c r="J22" s="17">
+        <v>8337265</v>
+      </c>
+      <c r="K22" s="17">
         <v>15730537</v>
       </c>
-      <c r="E22" s="17">
+      <c r="L22" s="17">
         <v>23889678</v>
       </c>
-      <c r="F22" s="17">
+      <c r="M22" s="17">
         <v>52454868</v>
       </c>
-      <c r="G22" s="17">
+      <c r="N22" s="17">
         <v>21200325</v>
       </c>
-      <c r="H22" s="17">
+      <c r="O22" s="17">
         <v>23685576</v>
       </c>
-      <c r="I22" s="17">
+      <c r="P22" s="17">
         <v>17044241</v>
       </c>
-      <c r="J22" s="17">
+      <c r="Q22" s="17">
         <v>34376947</v>
       </c>
-      <c r="K22" s="17">
+      <c r="R22" s="17">
         <v>24134506</v>
       </c>
-      <c r="L22" s="17">
+      <c r="S22" s="17">
         <v>10999170</v>
       </c>
-      <c r="M22" s="17">
+      <c r="T22" s="17">
         <v>17277167</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>48325859</v>
+      </c>
+      <c r="V22" s="17">
+        <v>23745402</v>
+      </c>
+      <c r="W22" s="17">
+        <v>14825428</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1289,82 +1855,172 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>5909590</v>
+      </c>
+      <c r="E24" s="17">
+        <v>7458390</v>
+      </c>
+      <c r="F24" s="17">
+        <v>8678553</v>
+      </c>
+      <c r="G24" s="17">
+        <v>9127081</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3418202</v>
+      </c>
+      <c r="I24" s="17">
+        <v>16662877</v>
+      </c>
+      <c r="J24" s="17">
+        <v>8337265</v>
+      </c>
+      <c r="K24" s="17">
         <v>15730537</v>
       </c>
-      <c r="E24" s="17">
+      <c r="L24" s="17">
         <v>23889678</v>
       </c>
-      <c r="F24" s="17">
+      <c r="M24" s="17">
         <v>52454868</v>
       </c>
-      <c r="G24" s="17">
+      <c r="N24" s="17">
         <v>21200325</v>
       </c>
-      <c r="H24" s="17">
+      <c r="O24" s="17">
         <v>23685576</v>
       </c>
-      <c r="I24" s="17">
+      <c r="P24" s="17">
         <v>17044241</v>
       </c>
-      <c r="J24" s="17">
+      <c r="Q24" s="17">
         <v>34376947</v>
       </c>
-      <c r="K24" s="17">
+      <c r="R24" s="17">
         <v>24134506</v>
       </c>
-      <c r="L24" s="17">
+      <c r="S24" s="17">
         <v>10999170</v>
       </c>
-      <c r="M24" s="17">
+      <c r="T24" s="17">
         <v>17277167</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>48325859</v>
+      </c>
+      <c r="V24" s="17">
+        <v>23745402</v>
+      </c>
+      <c r="W24" s="17">
+        <v>14825428</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>428</v>
+      </c>
+      <c r="E25" s="13">
+        <v>540</v>
+      </c>
+      <c r="F25" s="13">
+        <v>629</v>
+      </c>
+      <c r="G25" s="13">
+        <v>661</v>
+      </c>
+      <c r="H25" s="13">
+        <v>248</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1207</v>
+      </c>
+      <c r="J25" s="13">
+        <v>604</v>
+      </c>
+      <c r="K25" s="13">
         <v>1140</v>
       </c>
-      <c r="E25" s="13">
+      <c r="L25" s="13">
         <v>1731</v>
       </c>
-      <c r="F25" s="13">
+      <c r="M25" s="13">
         <v>3801</v>
       </c>
-      <c r="G25" s="13">
+      <c r="N25" s="13">
         <v>1536</v>
       </c>
-      <c r="H25" s="13">
+      <c r="O25" s="13">
         <v>1716</v>
       </c>
-      <c r="I25" s="13">
-        <v>947</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="P25" s="13">
+        <v>188</v>
+      </c>
+      <c r="Q25" s="13">
         <v>1910</v>
       </c>
-      <c r="K25" s="13">
-        <v>1749</v>
-      </c>
-      <c r="L25" s="13">
+      <c r="R25" s="13">
+        <v>1341</v>
+      </c>
+      <c r="S25" s="13">
         <v>611</v>
       </c>
-      <c r="M25" s="13">
+      <c r="T25" s="13">
         <v>960</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="13">
+        <v>2685</v>
+      </c>
+      <c r="V25" s="13">
+        <v>1319</v>
+      </c>
+      <c r="W25" s="13">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1383,58 +2039,118 @@
         <v>13800000</v>
       </c>
       <c r="I26" s="11">
-        <v>18000000</v>
+        <v>13800000</v>
       </c>
       <c r="J26" s="11">
-        <v>18000000</v>
+        <v>13800000</v>
       </c>
       <c r="K26" s="11">
         <v>13800000</v>
       </c>
       <c r="L26" s="11">
+        <v>13800000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>13800000</v>
+      </c>
+      <c r="N26" s="11">
+        <v>13800000</v>
+      </c>
+      <c r="O26" s="11">
+        <v>13800000</v>
+      </c>
+      <c r="P26" s="11">
         <v>18000000</v>
       </c>
-      <c r="M26" s="11">
+      <c r="Q26" s="11">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R26" s="11">
+        <v>18000000</v>
+      </c>
+      <c r="S26" s="11">
+        <v>18000000</v>
+      </c>
+      <c r="T26" s="11">
+        <v>18000000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>18000000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>18000000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>328</v>
+      </c>
+      <c r="E27" s="13">
+        <v>414</v>
+      </c>
+      <c r="F27" s="13">
+        <v>482</v>
+      </c>
+      <c r="G27" s="13">
+        <v>507</v>
+      </c>
+      <c r="H27" s="13">
+        <v>190</v>
+      </c>
+      <c r="I27" s="13">
+        <v>926</v>
+      </c>
+      <c r="J27" s="13">
+        <v>463</v>
+      </c>
+      <c r="K27" s="13">
         <v>874</v>
       </c>
-      <c r="E27" s="13">
+      <c r="L27" s="13">
         <v>1327</v>
       </c>
-      <c r="F27" s="13">
+      <c r="M27" s="13">
         <v>2914</v>
       </c>
-      <c r="G27" s="13">
+      <c r="N27" s="13">
         <v>1178</v>
       </c>
-      <c r="H27" s="13">
+      <c r="O27" s="13">
         <v>1316</v>
       </c>
-      <c r="I27" s="13">
+      <c r="P27" s="13">
         <v>947</v>
       </c>
-      <c r="J27" s="13">
+      <c r="Q27" s="13">
         <v>1910</v>
       </c>
-      <c r="K27" s="13">
+      <c r="R27" s="13">
         <v>1341</v>
       </c>
-      <c r="L27" s="13">
+      <c r="S27" s="13">
         <v>611</v>
       </c>
-      <c r="M27" s="13">
+      <c r="T27" s="13">
         <v>960</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="13">
+        <v>2685</v>
+      </c>
+      <c r="V27" s="13">
+        <v>1319</v>
+      </c>
+      <c r="W27" s="13">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1447,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
